--- a/data/trans_dic/P19-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,38%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>15,45; 24,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>25,1; 36,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>31,41; 43,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>17,32; 27,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>29,58; 40,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>34,74; 44,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>17,54; 24,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>28,44; 36,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>34,5; 41,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,83%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>24,34; 33,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>20,64; 28,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>24,08; 32,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>19,9; 29,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>31,02; 39,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>21,66; 29,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>28,22; 36,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>23,35; 30,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>29,02; 35,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>22,48; 28,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>27,8; 33,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>22,92; 28,89</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>17,87; 27,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>18,64; 28,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>25,14; 34,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>16,14; 24,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>23,78; 33,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>31,06; 41,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>26,13; 36,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>26,23; 34,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>21,94; 28,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>26,12; 33,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,04; 34,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>22,52; 28,9</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,73%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>21,91; 31,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>22,95; 30,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>26,06; 36,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>33,15; 46,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>28,45; 38,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>22,76; 30,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>33,06; 43,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>37,4; 50,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>26,82; 33,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>23,89; 28,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>31,16; 38,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>37,58; 46,65</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>27,01; 40,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>14,12; 25,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>11,77; 22,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>8,61; 16,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>23,15; 36,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>25,86; 38,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>20,64; 31,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>14,45; 22,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>26,92; 35,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>22,18; 30,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>17,51; 25,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>12,84; 18,48</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,37%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>15,16; 24,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>25,16; 37,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>29,94; 42,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>19,09; 29,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>28,8; 40,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>25,46; 36,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>35,42; 47,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>23,97; 33,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,4; 30,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>26,81; 34,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>34,47; 42,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>23,35; 30,36</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,34%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>25,54; 32,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>21,04; 28,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>24,46; 32,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>30,85; 39,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>33,91; 41,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>29,89; 37,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>33,45; 40,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>21,3; 40,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>30,93; 36,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>26,68; 31,58</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>30,25; 35,56</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>25,92; 38,37</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,45%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>18,18; 24,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>20,38; 26,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>26,5; 33,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>14,76; 22,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>23,74; 30,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>27,87; 34,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>30,07; 37,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>21,34; 27,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>21,68; 26,07</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>24,98; 29,55</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>29,3; 34,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>18,88; 23,71</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,46%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,42; 26,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,19; 26,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>27,66; 30,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,32; 27,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,83; 33,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>28,65; 31,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,94; 36,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,22; 32,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>27,15; 29,25</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>26,45; 28,67</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,69; 33,0</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>26,77; 29,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>38,47%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,09; 31,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,41; 43,44</t>
+          <t>30,97; 44,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,36; 32,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,74; 44,24</t>
+          <t>34,68; 44,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,79; 30,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,5; 41,88</t>
+          <t>34,38; 42,44</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>25,74%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,9; 29,72</t>
+          <t>19,79; 29,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,35; 30,55</t>
+          <t>23,47; 30,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 28,89</t>
+          <t>22,8; 28,97</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>25,75%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,57</t>
+          <t>16,1; 24,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,23; 34,7</t>
+          <t>26,36; 34,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 28,9</t>
+          <t>22,5; 28,86</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>40,26%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,95; 30,01</t>
+          <t>21,99; 31,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,15; 46,49</t>
+          <t>32,51; 46,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,76; 30,44</t>
+          <t>21,92; 30,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,4; 50,02</t>
+          <t>24,84; 53,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,89; 28,52</t>
+          <t>23,24; 29,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,58; 46,65</t>
+          <t>29,81; 47,93</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>15,32%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 16,74</t>
+          <t>8,56; 16,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,45; 22,02</t>
+          <t>14,6; 22,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,48</t>
+          <t>12,9; 18,48</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,32%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,09; 29,73</t>
+          <t>19,2; 29,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,97; 33,27</t>
+          <t>23,83; 33,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,35; 30,36</t>
+          <t>23,25; 30,23</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>31,9%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,85; 39,61</t>
+          <t>30,64; 39,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,3; 40,77</t>
+          <t>14,25; 40,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,92; 38,37</t>
+          <t>18,44; 38,04</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>18,74%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,76; 22,25</t>
+          <t>6,51; 20,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,34; 27,03</t>
+          <t>21,4; 26,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,88; 23,71</t>
+          <t>11,12; 22,7</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>27,55%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,32; 27,85</t>
+          <t>19,36; 27,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,22; 32,14</t>
+          <t>23,82; 32,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26,77; 29,71</t>
+          <t>23,82; 29,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 24,95</t>
+          <t>15,27; 24,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,09; 31,31</t>
+          <t>20,61; 30,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,1; 36,03</t>
+          <t>24,21; 35,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,97; 44,3</t>
+          <t>30,65; 43,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,32; 27,79</t>
+          <t>18,16; 28,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,36; 32,76</t>
+          <t>21,57; 32,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,58; 40,72</t>
+          <t>29,43; 41,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,68; 44,48</t>
+          <t>34,87; 44,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 24,93</t>
+          <t>17,91; 25,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,79; 30,28</t>
+          <t>22,61; 30,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,44; 36,59</t>
+          <t>28,58; 36,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,38; 42,44</t>
+          <t>34,04; 42,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,34; 33,12</t>
+          <t>24,79; 33,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,64; 28,74</t>
+          <t>21,07; 28,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,08; 32,79</t>
+          <t>24,71; 32,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,79; 29,91</t>
+          <t>19,96; 29,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,02; 39,27</t>
+          <t>30,6; 39,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,66; 29,2</t>
+          <t>21,55; 29,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,22; 36,52</t>
+          <t>28,46; 36,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,47; 30,57</t>
+          <t>23,74; 30,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,02; 35,22</t>
+          <t>28,71; 34,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 28,07</t>
+          <t>22,57; 28,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,8; 33,44</t>
+          <t>27,86; 33,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 28,97</t>
+          <t>22,85; 29,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,87; 27,22</t>
+          <t>17,75; 27,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,64; 28,45</t>
+          <t>18,83; 28,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,14; 34,99</t>
+          <t>25,2; 34,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,1; 24,65</t>
+          <t>16,52; 25,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,78; 33,48</t>
+          <t>23,74; 33,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,06; 41,46</t>
+          <t>31,0; 41,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 36,38</t>
+          <t>26,16; 36,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,36; 34,78</t>
+          <t>26,43; 34,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,94; 28,57</t>
+          <t>22,22; 28,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,12; 33,53</t>
+          <t>25,75; 33,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,04; 34,24</t>
+          <t>26,97; 34,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 28,86</t>
+          <t>22,9; 29,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 31,25</t>
+          <t>21,94; 31,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,99; 31,59</t>
+          <t>22,36; 31,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,06; 36,2</t>
+          <t>25,76; 35,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,51; 46,25</t>
+          <t>32,19; 46,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,45; 38,01</t>
+          <t>28,46; 37,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,92; 30,89</t>
+          <t>21,71; 30,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,06; 43,11</t>
+          <t>32,87; 43,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,84; 53,11</t>
+          <t>25,03; 53,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,82; 33,48</t>
+          <t>26,56; 32,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,24; 29,67</t>
+          <t>23,1; 29,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,16; 38,03</t>
+          <t>30,92; 38,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,81; 47,93</t>
+          <t>30,91; 47,47</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 40,13</t>
+          <t>27,23; 40,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,12; 25,26</t>
+          <t>13,6; 24,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 22,06</t>
+          <t>11,92; 22,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 16,62</t>
+          <t>8,74; 17,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,15; 36,43</t>
+          <t>23,09; 35,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,86; 38,65</t>
+          <t>26,41; 39,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,64; 31,81</t>
+          <t>20,06; 32,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,6; 22,08</t>
+          <t>14,89; 22,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,92; 35,71</t>
+          <t>26,59; 35,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,18; 30,8</t>
+          <t>22,38; 30,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,51; 25,37</t>
+          <t>17,57; 25,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,9; 18,48</t>
+          <t>12,88; 18,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,16; 24,75</t>
+          <t>15,17; 24,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,16; 37,06</t>
+          <t>25,17; 36,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,94; 42,29</t>
+          <t>29,62; 41,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,2; 29,99</t>
+          <t>19,71; 29,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,8; 40,05</t>
+          <t>28,77; 40,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,46; 36,3</t>
+          <t>24,87; 36,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>35,42; 47,55</t>
+          <t>35,97; 46,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,83; 33,04</t>
+          <t>24,18; 32,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,86</t>
+          <t>23,57; 30,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,81; 34,98</t>
+          <t>26,3; 34,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,47; 42,78</t>
+          <t>34,3; 42,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,25; 30,23</t>
+          <t>23,37; 29,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,54; 32,52</t>
+          <t>25,22; 32,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,04; 28,32</t>
+          <t>21,06; 28,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,46; 32,1</t>
+          <t>24,47; 31,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,64; 39,94</t>
+          <t>30,17; 39,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,91; 41,79</t>
+          <t>34,02; 41,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,89; 37,97</t>
+          <t>30,11; 37,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,45; 40,6</t>
+          <t>33,1; 40,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,25; 40,62</t>
+          <t>15,49; 40,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,93; 36,42</t>
+          <t>30,64; 36,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,68; 31,58</t>
+          <t>26,49; 31,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,25; 35,56</t>
+          <t>30,12; 35,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,44; 38,04</t>
+          <t>20,53; 38,27</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,17</t>
+          <t>17,93; 23,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,38; 26,74</t>
+          <t>20,53; 26,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,5; 33,05</t>
+          <t>26,52; 33,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,51; 20,63</t>
+          <t>6,33; 21,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,74; 30,02</t>
+          <t>23,59; 30,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,87; 34,26</t>
+          <t>27,56; 34,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,07; 37,16</t>
+          <t>30,38; 37,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,4; 26,97</t>
+          <t>21,76; 27,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,68; 26,07</t>
+          <t>21,55; 26,06</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24,98; 29,55</t>
+          <t>25,23; 29,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>29,3; 34,16</t>
+          <t>29,3; 34,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,12; 22,7</t>
+          <t>11,15; 22,74</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>23,42; 26,53</t>
+          <t>23,24; 26,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,19; 26,29</t>
+          <t>23,17; 26,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>27,66; 30,61</t>
+          <t>27,33; 30,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,36; 27,7</t>
+          <t>18,92; 27,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,83; 33,03</t>
+          <t>29,8; 32,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,65; 31,85</t>
+          <t>28,85; 32,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>32,94; 36,2</t>
+          <t>32,89; 36,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,82; 32,79</t>
+          <t>24,2; 32,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>27,15; 29,25</t>
+          <t>27,03; 29,2</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>26,45; 28,67</t>
+          <t>26,49; 28,68</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30,69; 33,0</t>
+          <t>30,55; 32,94</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>23,82; 29,77</t>
+          <t>24,28; 29,69</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 6 meses han ido al dentista</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54001</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>75396</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>89212</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>116205</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>59109</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>76939</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100151</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>114507</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>113110</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>152335</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>189363</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>230712</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>41700; 67179</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>60517; 90619</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>71125; 105120</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>95459; 136934</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>47381; 74197</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61957; 93654</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>84958; 118420</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>100552; 128179</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>95614; 133640</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>131298; 176638</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>166466; 214377</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>204195; 256994</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>141612</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>124857</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>142294</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>126950</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>175833</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>133790</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>169172</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>138025</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>317444</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>258648</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>311465</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>264975</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>122237; 163815</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>106532; 145058</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>124163; 163540</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>103317; 154023</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>153940; 196426</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>112865; 154036</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>148855; 191442</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>121558; 157623</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>286017; 347889</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>232288; 289033</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>285720; 342050</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>235265; 299173</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>71284</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>75424</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>94794</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64312</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94783</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>122897</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>104902</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>106038</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>166067</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>198321</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>199696</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>170350</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56588; 87209</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60763; 91271</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80288; 111461</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51811; 79467</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>79638; 111318</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>105716; 142547</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>87975; 123644</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>91954; 121381</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>145385; 188848</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>170879; 223461</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>176599; 224516</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>151469; 191941</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>94858</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>99918</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>114201</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>120505</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>122451</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>101218</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>146663</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>194989</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>217309</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>201136</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>260864</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>315494</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>78689; 112097</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83612; 118328</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>95317; 132017</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>100444; 143973</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>105715; 140794</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>84444; 118720</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>127301; 167569</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>118062; 250514</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>193917; 240399</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>176226; 227743</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>234166; 289005</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>242219; 372033</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>68057</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41320</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34601</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21966</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>59962</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>71393</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>56423</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36998</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>128019</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>112713</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>91025</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>58965</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>55354; 81573</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28909; 52998</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25172; 46622</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15627; 31027</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>47956; 74529</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>57736; 86390</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>43857; 70159</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30700; 45762</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>109266; 147650</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>96515; 132770</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>75503; 108724</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>49581; 70059</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53083</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>83580</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>93905</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>65155</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>95579</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>84973</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>112797</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>73486</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>148662</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>168553</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>206702</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>138641</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>41072; 67068</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>68974; 100343</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77927; 109566</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>53133; 80011</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>80009; 111702</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>69650; 101432</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>98241; 128339</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>62146; 84429</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>129396; 169966</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>145726; 191260</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>183913; 229109</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>123099; 156923</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>177336</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>161356</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>185184</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>212827</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>243102</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>233063</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>256857</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>249001</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>420437</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>394419</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>442040</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>461828</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>154882; 201009</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>139556; 185744</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>160679; 208172</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>184469; 238472</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>217140; 267597</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>208938; 258767</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>228820; 281760</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>129569; 339392</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>383773; 452371</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>359398; 431786</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>406032; 476224</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>297174; 554029</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>154688</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>182744</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>232158</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>134792</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>208177</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>254583</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>277205</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>171190</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>362865</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>437327</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>509363</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>305982</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>133360; 177030</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>159969; 207479</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>206452; 258137</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>58400; 196451</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>184802; 235083</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>227068; 282570</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>250957; 308444</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>154587; 192558</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>329181; 398078</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>404392; 480719</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>470179; 548942</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>182092; 371254</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1793</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2087</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2410</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>814918</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>844597</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>986348</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>862713</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1058996</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1078857</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1224171</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1084234</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1873914</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1923453</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2210518</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1946946</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>761136; 862782</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>793371; 893185</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>927665; 1038411</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>650025; 952093</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1006886; 1110122</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1026159; 1139075</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1165881; 1279347</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>878391; 1189142</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1798612; 1942870</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1849388; 2002245</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2120052; 2285927</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1715635; 2097718</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>